--- a/input/data/Local_Material_Data.xlsx
+++ b/input/data/Local_Material_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\Regression\MIP\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA19F0-8BC1-4DFE-92ED-8AEF38595D48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A885B-A01F-478C-9D77-8D67C172B11B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="171">
   <si>
     <t>S.NO</t>
   </si>
@@ -30,18 +30,12 @@
     <t>Test_Case</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>BE</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -189,15 +183,6 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
-    <t>OpCo</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>Extend Material Global and Local from SAP to  NAV(With Local data adding)</t>
-  </si>
-  <si>
     <t>Plant</t>
   </si>
   <si>
@@ -277,13 +262,286 @@
   </si>
   <si>
     <t>8.Create_Material_Global_and_Local_for_nav_Duplicate_not_Found.xml</t>
+  </si>
+  <si>
+    <t>10.Create_Material_with_Questionnaire_only_Global_with_Rejections_SAP.xml</t>
+  </si>
+  <si>
+    <t>11.Create_Material_with_Questionnaire_only_Global_with_Rejections_and_Discard_SAP.xml</t>
+  </si>
+  <si>
+    <t>12.Create Material with Save as Draft only Global_SAP.xml</t>
+  </si>
+  <si>
+    <t>35Create_Material_SaveAsDraft_JDE.xml</t>
+  </si>
+  <si>
+    <t>7.Create_Material_Global_and_Local_for_JDE.xml</t>
+  </si>
+  <si>
+    <t>75Create Material with Questionnaire only Global - SAP Duplicate Found Extend Selected.xml</t>
+  </si>
+  <si>
+    <t>9.Create_Material_with_Questionnaire_only_Global_SAP.xml</t>
+  </si>
+  <si>
+    <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
+  </si>
+  <si>
+    <t>108.Create_Material_JDE_with_Questionnaire_Global_And_Local_with_Rejections.xml</t>
+  </si>
+  <si>
+    <t>109.Create_Material_JDE_with_Questionnaire_Global_And_Local_with_Rejections and Discard.xml</t>
+  </si>
+  <si>
+    <t>57ExtendGlobalandorLocalforNAV.xml</t>
+  </si>
+  <si>
+    <t>2.Change_Material_global_and_local_JDE.xml</t>
+  </si>
+  <si>
+    <t>1.Change _Material_global_and_local_for_NAV.xml</t>
+  </si>
+  <si>
+    <t>26Change_Material_Global_only_with_Rejections_SAP.xml</t>
+  </si>
+  <si>
+    <t>27Change_Material_Global_Only_With_Reject_Discard_SAP.xml</t>
+  </si>
+  <si>
+    <t>28Change MaterialGlobal and Local  with Rejections and Discard NAV.xml</t>
+  </si>
+  <si>
+    <t>29Change MaterialGlobal and Local  with Rejections and Discard for JDE.xml</t>
+  </si>
+  <si>
+    <t>3.Change_Material_global_only_SAP.xml</t>
+  </si>
+  <si>
+    <t>100Extend Global and Local for NAV.xml</t>
+  </si>
+  <si>
+    <t>103Extend Global and Local for NAV to JDE(With Local Data Adding)(PA01 SG04).xml</t>
+  </si>
+  <si>
+    <t>107Extend material Global and Local for JDE(SG04 to KH01).xml</t>
+  </si>
+  <si>
+    <t>49Extend Material Global, Local  for JDE  to Nav(Diff. Target System).xml</t>
+  </si>
+  <si>
+    <t>45Extend same target system - Extend Global for SAP.xml</t>
+  </si>
+  <si>
+    <t>46Extend_same_target system - Extend_Global_and_Local_for_Non_SAP JDE.xml</t>
+  </si>
+  <si>
+    <t>47.Extend Global only for SAP.xml</t>
+  </si>
+  <si>
+    <t>65Extend Material Global and Local from SAP to  JDE with Rejections(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>66Extend Material Global and Local from SAP to  JDE(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>73Extend Material Global and Local from SAP to  NAV(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>74Extend Material Global and Local from SAP to  NAV with Rejections(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>77Extend Material Global, Local  for JDE  to Nav(Diff. Target System).xml</t>
+  </si>
+  <si>
+    <t>78Extend Material Global Within SAP- (BG to UK) (Different System).xml</t>
+  </si>
+  <si>
+    <t>88Extend Material Global and Local from SAP to  NAV with Rejections and Discard(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>92.Extend_Global_Only _with_rejections_discardforSAP.xml</t>
+  </si>
+  <si>
+    <t>96Extend Material Global and Local with Rejections for JDE (Extend KH01 Opco to SG04).xml</t>
+  </si>
+  <si>
+    <t>30Create_with_ref_Global_Only-Direct_Copy SAP.xml</t>
+  </si>
+  <si>
+    <t>31Create with Ref save as draft global Only - Direct Copy_SAP.xml</t>
+  </si>
+  <si>
+    <t>32Create with ref Global Only - SAP Direct Copy with Rejections.xml</t>
+  </si>
+  <si>
+    <t>33Create with ref Global and Local- JDE Direct Copy.xml</t>
+  </si>
+  <si>
+    <t>34Create with ref Global and local - NAV Direct Copy.xml</t>
+  </si>
+  <si>
+    <t>36Create with ref Global and local - Edit Global and Local Data_NAV.xml</t>
+  </si>
+  <si>
+    <t>37Create with ref Global and Local Material- JDE Direct Copy With Rejections.xml</t>
+  </si>
+  <si>
+    <t>38Create with ref Global and local - NAV Direct Copy with rejections.xml</t>
+  </si>
+  <si>
+    <t>39Create with ref Global Only - SAP Direct Copy with rejections and discard.xml</t>
+  </si>
+  <si>
+    <t>40Create with ref Global and Local Only - JDE Direct Copy with rejections and discard.xml</t>
+  </si>
+  <si>
+    <t>41Create with ref Global and local - NAV Direct Copy with rejections and discard.xml</t>
+  </si>
+  <si>
+    <t>93Create Mat. with Ref save as draft global and local  - Direct Copy_JDE .xml</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -298,8 +556,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Mic Shell Dlg"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +572,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -364,13 +638,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -386,6 +659,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,193 +1001,2378 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IX3"/>
+  <dimension ref="A1:IY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.5546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="14" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="17" max="258" width="9.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="259" max="16384" width="9.109375" style="6" collapsed="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="97" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="256" width="9.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="257" max="257" width="9.140625" style="5" collapsed="1"/>
+    <col min="258" max="259" width="9.140625" style="5"/>
+    <col min="260" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="B2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="O14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="O15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -930,118 +3391,118 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1063,179 +3524,179 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
